--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
@@ -543,10 +543,10 @@
         <v>0.275877</v>
       </c>
       <c r="I2">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J2">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3922993333333333</v>
+        <v>0.3754836666666666</v>
       </c>
       <c r="N2">
-        <v>1.176898</v>
+        <v>1.126451</v>
       </c>
       <c r="O2">
-        <v>0.1197958591217032</v>
+        <v>0.1282941949732911</v>
       </c>
       <c r="P2">
-        <v>0.1197958591217032</v>
+        <v>0.1282941949732911</v>
       </c>
       <c r="Q2">
-        <v>0.036075454394</v>
+        <v>0.03452910250299999</v>
       </c>
       <c r="R2">
-        <v>0.324679089546</v>
+        <v>0.310761922527</v>
       </c>
       <c r="S2">
-        <v>0.007525662029808538</v>
+        <v>0.005688184155725583</v>
       </c>
       <c r="T2">
-        <v>0.00752566202980854</v>
+        <v>0.005688184155725582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.275877</v>
       </c>
       <c r="I3">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J3">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>1.633389</v>
       </c>
       <c r="O3">
-        <v>0.1662618498246574</v>
+        <v>0.1860305746394907</v>
       </c>
       <c r="P3">
-        <v>0.1662618498246574</v>
+        <v>0.1860305746394907</v>
       </c>
       <c r="Q3">
         <v>0.050068273017</v>
@@ -635,10 +635,10 @@
         <v>0.450614457153</v>
       </c>
       <c r="S3">
-        <v>0.01044468898511761</v>
+        <v>0.008248044016061468</v>
       </c>
       <c r="T3">
-        <v>0.01044468898511761</v>
+        <v>0.008248044016061466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.275877</v>
       </c>
       <c r="I4">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J4">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4551463333333333</v>
+        <v>0.9905483333333333</v>
       </c>
       <c r="N4">
-        <v>1.365439</v>
+        <v>2.971645</v>
       </c>
       <c r="O4">
-        <v>0.1389873532653461</v>
+        <v>0.3384477469693805</v>
       </c>
       <c r="P4">
-        <v>0.1389873532653461</v>
+        <v>0.3384477469693805</v>
       </c>
       <c r="Q4">
-        <v>0.04185480166699999</v>
+        <v>0.091089834185</v>
       </c>
       <c r="R4">
-        <v>0.376693215003</v>
+        <v>0.8198085076649999</v>
       </c>
       <c r="S4">
-        <v>0.008731285494851498</v>
+        <v>0.01500576945241395</v>
       </c>
       <c r="T4">
-        <v>0.0087312854948515</v>
+        <v>0.01500576945241395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.275877</v>
       </c>
       <c r="I5">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J5">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.882823333333333</v>
+        <v>1.016244333333333</v>
       </c>
       <c r="N5">
-        <v>5.64847</v>
+        <v>3.048733</v>
       </c>
       <c r="O5">
-        <v>0.5749549377882933</v>
+        <v>0.3472274834178377</v>
       </c>
       <c r="P5">
-        <v>0.5749549377882933</v>
+        <v>0.3472274834178377</v>
       </c>
       <c r="Q5">
-        <v>0.17314255091</v>
+        <v>0.093452812649</v>
       </c>
       <c r="R5">
-        <v>1.55828295819</v>
+        <v>0.8410753138409999</v>
       </c>
       <c r="S5">
-        <v>0.0361190827119365</v>
+        <v>0.01539503693071223</v>
       </c>
       <c r="T5">
-        <v>0.0361190827119365</v>
+        <v>0.01539503693071223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H6">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I6">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J6">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3922993333333333</v>
+        <v>0.3754836666666666</v>
       </c>
       <c r="N6">
-        <v>1.176898</v>
+        <v>1.126451</v>
       </c>
       <c r="O6">
-        <v>0.1197958591217032</v>
+        <v>0.1282941949732911</v>
       </c>
       <c r="P6">
-        <v>0.1197958591217032</v>
+        <v>0.1282941949732911</v>
       </c>
       <c r="Q6">
-        <v>0.5381849940844444</v>
+        <v>0.7442578156936666</v>
       </c>
       <c r="R6">
-        <v>4.84366494676</v>
+        <v>6.698320341243</v>
       </c>
       <c r="S6">
-        <v>0.1122701970918946</v>
+        <v>0.1226060108175655</v>
       </c>
       <c r="T6">
-        <v>0.1122701970918947</v>
+        <v>0.1226060108175655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H7">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I7">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J7">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.633389</v>
       </c>
       <c r="O7">
-        <v>0.1662618498246574</v>
+        <v>0.1860305746394907</v>
       </c>
       <c r="P7">
-        <v>0.1662618498246574</v>
+        <v>0.1860305746394907</v>
       </c>
       <c r="Q7">
-        <v>0.7469342706866666</v>
+        <v>1.079196990653</v>
       </c>
       <c r="R7">
-        <v>6.722408436179999</v>
+        <v>9.712772915877</v>
       </c>
       <c r="S7">
-        <v>0.1558171608395398</v>
+        <v>0.1777825306234293</v>
       </c>
       <c r="T7">
-        <v>0.1558171608395398</v>
+        <v>0.1777825306234292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H8">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I8">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J8">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4551463333333333</v>
+        <v>0.9905483333333333</v>
       </c>
       <c r="N8">
-        <v>1.365439</v>
+        <v>2.971645</v>
       </c>
       <c r="O8">
-        <v>0.1389873532653461</v>
+        <v>0.3384477469693805</v>
       </c>
       <c r="P8">
-        <v>0.1389873532653461</v>
+        <v>0.3384477469693805</v>
       </c>
       <c r="Q8">
-        <v>0.6244031174644443</v>
+        <v>1.963396558498333</v>
       </c>
       <c r="R8">
-        <v>5.619628057179999</v>
+        <v>17.670569026485</v>
       </c>
       <c r="S8">
-        <v>0.1302560677704946</v>
+        <v>0.3234419775169665</v>
       </c>
       <c r="T8">
-        <v>0.1302560677704946</v>
+        <v>0.3234419775169665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.371873333333333</v>
+        <v>1.982131</v>
       </c>
       <c r="H9">
-        <v>4.11562</v>
+        <v>5.946393</v>
       </c>
       <c r="I9">
-        <v>0.9371792807782859</v>
+        <v>0.9556629654450868</v>
       </c>
       <c r="J9">
-        <v>0.9371792807782858</v>
+        <v>0.9556629654450867</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.882823333333333</v>
+        <v>1.016244333333333</v>
       </c>
       <c r="N9">
-        <v>5.64847</v>
+        <v>3.048733</v>
       </c>
       <c r="O9">
-        <v>0.5749549377882933</v>
+        <v>0.3472274834178377</v>
       </c>
       <c r="P9">
-        <v>0.5749549377882933</v>
+        <v>0.3472274834178377</v>
       </c>
       <c r="Q9">
-        <v>2.582995122377778</v>
+        <v>2.014329396674333</v>
       </c>
       <c r="R9">
-        <v>23.2469561014</v>
+        <v>18.128964570069</v>
       </c>
       <c r="S9">
-        <v>0.5388358550763569</v>
+        <v>0.3318324464871255</v>
       </c>
       <c r="T9">
-        <v>0.5388358550763568</v>
+        <v>0.3318324464871255</v>
       </c>
     </row>
   </sheetData>
